--- a/processed_quota_distinct_values.xlsx
+++ b/processed_quota_distinct_values.xlsx
@@ -474,12 +474,12 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -612,12 +612,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -704,12 +704,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -865,12 +865,12 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -957,12 +957,12 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1026,12 +1026,12 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1095,12 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1118,12 +1118,12 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1187,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1210,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1348,12 +1348,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1394,12 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1417,12 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1440,12 +1440,12 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1532,12 +1532,12 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1578,12 +1578,12 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1624,12 +1624,12 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1670,12 +1670,12 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1739,12 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1762,12 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1785,12 +1785,12 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1808,12 +1808,12 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1854,12 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1900,12 +1900,12 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1946,12 +1946,12 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1969,12 +1969,12 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -1992,12 +1992,12 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2015,12 +2015,12 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2038,12 +2038,12 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2084,12 +2084,12 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2130,12 +2130,12 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2153,12 +2153,12 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2199,12 +2199,12 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2222,12 +2222,12 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2245,12 +2245,12 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2268,12 +2268,12 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2291,12 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2314,12 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2360,12 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2383,12 +2383,12 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2406,12 +2406,12 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2429,12 +2429,12 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2452,12 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2475,12 +2475,12 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2544,12 +2544,12 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2567,12 +2567,12 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2590,12 +2590,12 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2636,12 +2636,12 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2682,12 +2682,12 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2705,12 +2705,12 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2728,12 +2728,12 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2774,12 +2774,12 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2797,12 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2820,12 +2820,12 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2843,12 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2935,12 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2958,12 +2958,12 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3004,12 +3004,12 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3027,12 +3027,12 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3050,12 +3050,12 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3073,12 +3073,12 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3096,12 +3096,12 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3119,12 +3119,12 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3142,12 +3142,12 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3165,12 +3165,12 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3188,12 +3188,12 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3257,12 +3257,12 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3303,12 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3326,12 +3326,12 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3349,12 +3349,12 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3372,12 +3372,12 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3395,12 +3395,12 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3418,12 +3418,12 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3441,12 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3464,12 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3487,12 +3487,12 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3510,12 +3510,12 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3602,12 +3602,12 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3648,12 +3648,12 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3694,12 +3694,12 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3740,12 +3740,12 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3763,12 +3763,12 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3786,12 +3786,12 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3809,12 +3809,12 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3832,12 +3832,12 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3855,12 +3855,12 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3878,12 +3878,12 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3924,12 +3924,12 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3947,12 +3947,12 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3970,12 +3970,12 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -3993,12 +3993,12 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4016,12 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4039,12 +4039,12 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4085,12 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4108,12 +4108,12 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4154,12 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4177,12 +4177,12 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4200,12 +4200,12 @@
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4223,12 +4223,12 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4269,12 @@
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4292,12 +4292,12 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4338,12 +4338,12 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4384,12 +4384,12 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4407,12 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4430,12 +4430,12 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4476,12 +4476,12 @@
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4499,12 +4499,12 @@
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4522,12 +4522,12 @@
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4545,12 +4545,12 @@
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4568,12 +4568,12 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4614,12 +4614,12 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4637,12 +4637,12 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4660,12 +4660,12 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4706,12 +4706,12 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4729,12 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4752,12 +4752,12 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4798,12 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4821,12 +4821,12 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4867,12 +4867,12 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4890,12 +4890,12 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4913,12 +4913,12 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4959,12 +4959,12 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -4982,12 +4982,12 @@
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5005,12 +5005,12 @@
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5028,12 +5028,12 @@
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5051,12 +5051,12 @@
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5074,12 +5074,12 @@
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5097,12 @@
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5120,12 +5120,12 @@
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5143,12 @@
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5166,12 +5166,12 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5258,12 +5258,12 @@
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5281,12 +5281,12 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5304,12 +5304,12 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5327,12 +5327,12 @@
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5350,12 +5350,12 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5373,12 +5373,12 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5396,12 +5396,12 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5419,12 +5419,12 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5465,12 +5465,12 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5488,12 +5488,12 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5511,12 +5511,12 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5534,12 +5534,12 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5580,12 +5580,12 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5603,12 +5603,12 @@
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5649,12 @@
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5672,12 +5672,12 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5695,12 +5695,12 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5718,12 +5718,12 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5741,12 +5741,12 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5764,12 +5764,12 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5787,12 +5787,12 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5810,12 +5810,12 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5833,12 +5833,12 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5856,12 +5856,12 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5879,12 +5879,12 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5902,12 +5902,12 @@
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5925,12 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5948,12 +5948,12 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5971,12 +5971,12 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -5994,12 +5994,12 @@
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6017,12 +6017,12 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6040,12 +6040,12 @@
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6063,12 +6063,12 @@
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6086,12 +6086,12 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6109,12 @@
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6132,12 +6132,12 @@
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6155,12 +6155,12 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6178,12 +6178,12 @@
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6224,12 +6224,12 @@
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6247,12 +6247,12 @@
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6270,12 +6270,12 @@
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6293,12 +6293,12 @@
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6316,12 +6316,12 @@
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6339,12 +6339,12 @@
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6362,12 +6362,12 @@
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6385,12 +6385,12 @@
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6408,12 +6408,12 @@
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6431,12 +6431,12 @@
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6454,12 +6454,12 @@
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6477,12 +6477,12 @@
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6500,12 +6500,12 @@
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6523,12 +6523,12 @@
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6546,12 +6546,12 @@
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6592,12 +6592,12 @@
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6615,12 +6615,12 @@
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6638,12 +6638,12 @@
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6661,12 +6661,12 @@
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6684,12 +6684,12 @@
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6707,12 +6707,12 @@
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6730,12 +6730,12 @@
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6776,12 +6776,12 @@
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6799,12 @@
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6822,12 +6822,12 @@
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6845,12 @@
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6868,12 +6868,12 @@
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6891,12 +6891,12 @@
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6914,12 +6914,12 @@
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6937,12 +6937,12 @@
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6960,12 +6960,12 @@
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -6983,12 +6983,12 @@
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7006,12 @@
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7029,12 +7029,12 @@
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7052,12 +7052,12 @@
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7075,12 +7075,12 @@
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7098,12 +7098,12 @@
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7121,12 +7121,12 @@
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7144,12 @@
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7167,12 +7167,12 @@
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7190,12 +7190,12 @@
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7213,12 +7213,12 @@
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7236,12 +7236,12 @@
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7259,12 +7259,12 @@
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7282,12 +7282,12 @@
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7305,12 +7305,12 @@
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7328,12 +7328,12 @@
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7374,12 +7374,12 @@
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7397,12 +7397,12 @@
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7420,12 +7420,12 @@
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7443,12 +7443,12 @@
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7466,12 +7466,12 @@
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7512,12 +7512,12 @@
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7558,12 +7558,12 @@
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7604,12 +7604,12 @@
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7650,12 +7650,12 @@
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7673,12 +7673,12 @@
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7696,12 +7696,12 @@
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7742,12 +7742,12 @@
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7765,12 +7765,12 @@
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7788,12 +7788,12 @@
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7834,12 +7834,12 @@
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7857,12 +7857,12 @@
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7880,12 +7880,12 @@
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7903,12 +7903,12 @@
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7926,12 +7926,12 @@
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7949,12 +7949,12 @@
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7972,12 +7972,12 @@
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -7995,12 +7995,12 @@
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8018,12 +8018,12 @@
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8041,12 +8041,12 @@
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8064,12 +8064,12 @@
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8110,12 +8110,12 @@
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8133,12 +8133,12 @@
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8156,12 +8156,12 @@
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8179,12 +8179,12 @@
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8202,12 +8202,12 @@
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8225,12 +8225,12 @@
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8248,12 +8248,12 @@
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8271,12 +8271,12 @@
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8294,12 +8294,12 @@
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8317,12 +8317,12 @@
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8340,12 +8340,12 @@
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8386,12 +8386,12 @@
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8409,12 @@
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8432,12 +8432,12 @@
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8455,12 +8455,12 @@
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8478,12 +8478,12 @@
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8501,12 +8501,12 @@
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8524,12 +8524,12 @@
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8547,12 +8547,12 @@
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8570,12 +8570,12 @@
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8593,12 +8593,12 @@
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8616,12 +8616,12 @@
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8639,12 +8639,12 @@
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8662,12 +8662,12 @@
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8708,12 +8708,12 @@
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8731,12 +8731,12 @@
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8754,12 +8754,12 @@
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8777,12 +8777,12 @@
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8800,12 +8800,12 @@
       <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8823,12 +8823,12 @@
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8846,12 +8846,12 @@
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8869,12 +8869,12 @@
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8892,12 +8892,12 @@
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8915,12 +8915,12 @@
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8938,12 +8938,12 @@
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8961,12 +8961,12 @@
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -8984,12 +8984,12 @@
       <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9007,12 +9007,12 @@
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9030,12 +9030,12 @@
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9053,12 +9053,12 @@
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9076,12 +9076,12 @@
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9099,12 +9099,12 @@
       <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9122,12 +9122,12 @@
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9145,12 +9145,12 @@
       <c r="C379" t="inlineStr"/>
       <c r="D379" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9168,12 +9168,12 @@
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9214,12 +9214,12 @@
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9237,12 +9237,12 @@
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9260,12 +9260,12 @@
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9306,12 +9306,12 @@
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9329,12 +9329,12 @@
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9352,12 +9352,12 @@
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9375,12 +9375,12 @@
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9398,12 +9398,12 @@
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9421,12 +9421,12 @@
       <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9444,12 +9444,12 @@
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9467,12 +9467,12 @@
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9490,12 +9490,12 @@
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9536,12 +9536,12 @@
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9559,12 +9559,12 @@
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9582,12 +9582,12 @@
       <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9605,12 +9605,12 @@
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9628,12 +9628,12 @@
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9651,12 +9651,12 @@
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9674,12 +9674,12 @@
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9697,12 +9697,12 @@
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9720,12 +9720,12 @@
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9743,12 +9743,12 @@
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9766,12 +9766,12 @@
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9789,12 +9789,12 @@
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9835,12 +9835,12 @@
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9858,12 +9858,12 @@
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9881,12 +9881,12 @@
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9904,12 +9904,12 @@
       <c r="C412" t="inlineStr"/>
       <c r="D412" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9927,12 +9927,12 @@
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9950,12 +9950,12 @@
       <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9973,12 +9973,12 @@
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -9996,12 +9996,12 @@
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10019,12 +10019,12 @@
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10065,12 +10065,12 @@
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10088,12 +10088,12 @@
       <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10111,12 +10111,12 @@
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10134,12 +10134,12 @@
       <c r="C422" t="inlineStr"/>
       <c r="D422" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10157,12 +10157,12 @@
       <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10180,12 +10180,12 @@
       <c r="C424" t="inlineStr"/>
       <c r="D424" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10203,12 +10203,12 @@
       <c r="C425" t="inlineStr"/>
       <c r="D425" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10226,12 +10226,12 @@
       <c r="C426" t="inlineStr"/>
       <c r="D426" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       <c r="C427" t="inlineStr"/>
       <c r="D427" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10272,12 +10272,12 @@
       <c r="C428" t="inlineStr"/>
       <c r="D428" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10295,12 +10295,12 @@
       <c r="C429" t="inlineStr"/>
       <c r="D429" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10318,12 +10318,12 @@
       <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10341,12 +10341,12 @@
       <c r="C431" t="inlineStr"/>
       <c r="D431" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10364,12 +10364,12 @@
       <c r="C432" t="inlineStr"/>
       <c r="D432" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10387,12 +10387,12 @@
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10410,12 +10410,12 @@
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10433,12 +10433,12 @@
       <c r="C435" t="inlineStr"/>
       <c r="D435" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10456,12 +10456,12 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10479,12 +10479,12 @@
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10502,12 +10502,12 @@
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10525,12 +10525,12 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10548,12 +10548,12 @@
       <c r="C440" t="inlineStr"/>
       <c r="D440" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       <c r="C441" t="inlineStr"/>
       <c r="D441" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10594,12 +10594,12 @@
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10617,12 +10617,12 @@
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10640,12 +10640,12 @@
       <c r="C444" t="inlineStr"/>
       <c r="D444" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10663,12 +10663,12 @@
       <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10686,12 +10686,12 @@
       <c r="C446" t="inlineStr"/>
       <c r="D446" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10709,12 +10709,12 @@
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10732,12 +10732,12 @@
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10755,12 +10755,12 @@
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10778,12 +10778,12 @@
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10801,12 +10801,12 @@
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10824,12 +10824,12 @@
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10847,12 +10847,12 @@
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10870,12 +10870,12 @@
       <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10893,12 +10893,12 @@
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10916,12 +10916,12 @@
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10939,12 +10939,12 @@
       <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10962,12 +10962,12 @@
       <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -10985,12 +10985,12 @@
       <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11008,12 +11008,12 @@
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11031,12 +11031,12 @@
       <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11054,12 +11054,12 @@
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11077,12 +11077,12 @@
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11100,12 +11100,12 @@
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11123,12 +11123,12 @@
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11146,12 +11146,12 @@
       <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11169,12 +11169,12 @@
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11192,12 +11192,12 @@
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11215,12 +11215,12 @@
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11238,12 +11238,12 @@
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11261,12 +11261,12 @@
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11284,12 +11284,12 @@
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11307,12 +11307,12 @@
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11330,12 +11330,12 @@
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11353,12 +11353,12 @@
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11376,12 +11376,12 @@
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11399,12 +11399,12 @@
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11422,12 +11422,12 @@
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11445,12 +11445,12 @@
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11468,12 +11468,12 @@
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11491,12 +11491,12 @@
       <c r="C481" t="inlineStr"/>
       <c r="D481" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11514,12 +11514,12 @@
       <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11537,12 +11537,12 @@
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
@@ -11560,12 +11560,12 @@
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>2026-01-14 17:32:32</t>
+          <t>2026-01-14 21:50:00</t>
         </is>
       </c>
     </row>
